--- a/FY2021-Docs/FY 2021 Summer Sprint by Sprint Plan.xlsx
+++ b/FY2021-Docs/FY 2021 Summer Sprint by Sprint Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\581804\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3A9DD-4EA0-4C93-85E6-A3DA52E90C02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7372F357-11C3-40A6-B156-419C7B5F5887}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="2920" xr2:uid="{065E5B46-4E2A-4BEE-9154-E38921931C9E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Sprint 10</t>
   </si>
@@ -124,9 +124,6 @@
     </r>
   </si>
   <si>
-    <t>UAT Go-live</t>
-  </si>
-  <si>
     <t>Production Go-live</t>
   </si>
   <si>
@@ -140,6 +137,12 @@
   </si>
   <si>
     <t>Business Case / SIR Updates</t>
+  </si>
+  <si>
+    <t>PHP 7 Regression</t>
+  </si>
+  <si>
+    <t>PHP 7 Launch</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1154,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1203,7 +1206,7 @@
         <v>43630</v>
       </c>
       <c r="D3" s="2">
-        <v>43651</v>
+        <v>43656</v>
       </c>
       <c r="E3" s="2">
         <v>43672</v>
@@ -1220,7 +1223,7 @@
         <v>43629</v>
       </c>
       <c r="C4" s="4">
-        <v>43650</v>
+        <v>43655</v>
       </c>
       <c r="D4" s="4">
         <v>43671</v>
@@ -1234,7 +1237,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -1243,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1266,10 +1269,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1278,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34"/>
@@ -1292,7 +1295,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F8" s="13"/>
     </row>
@@ -1322,7 +1325,7 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>21</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
